--- a/sample_data/three_monomer_systems/DMA_MPAM_OA.xlsx
+++ b/sample_data/three_monomer_systems/DMA_MPAM_OA.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/suprajachittari/Documents/GitHub/prism/sample_data/three_monomer_systems/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A4C28232-AC42-484F-9C25-7D8A9ACFF157}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13DAD45D-6853-8141-9688-0B487704C151}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41440" yWindow="5360" windowWidth="27240" windowHeight="15280" xr2:uid="{4C116F4A-F47B-8D46-91D1-DFBF673C4444}"/>
+    <workbookView xWindow="820" yWindow="1320" windowWidth="27240" windowHeight="15280" xr2:uid="{4C116F4A-F47B-8D46-91D1-DFBF673C4444}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -100,6 +100,3153 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FMPAM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$181</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="180"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.5588696923224389E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.3998969615642729E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.12139065944598862</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.16182575721269046</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.19635561439662605</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.22682908199942498</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.25493236605003344</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.2786487287932522</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.30179313835905303</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.32551728889101883</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.34647243122783478</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.36692945461516346</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.38093564291191406</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.3988860466788075</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.41761642744177135</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.43542170876066327</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.45013029569634805</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.46426842710629729</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.47765818197066995</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.48910188823924083</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.50155815681012172</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.5136383650436116</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.52470121848940854</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.5357038663375826</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.54602837750407351</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.5549751988881434</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.5640893079651107</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.57295750263586687</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.58096739312757584</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.58995330322055006</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.60610233154413873</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.6088656486628965</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.61735958017828041</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.62543446875299513</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.63301692945461507</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.64025328285248717</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.64650777580753371</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.65293240199367386</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.65868158727115877</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.66370096688392588</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.66821998106968272</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.67275576895427958</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.67712247196396036</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.68150160548260319</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.68677289010831011</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.69187883398830619</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.6972551039969328</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.70194155564075522</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.70731527964152197</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.71198196228313992</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.71608627671810599</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.72021320569347247</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.72322558228697398</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.72591626329914682</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.72896697977571168</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.73182360059426799</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.73468471436787108</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.73856288339883047</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.7413947929646314</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.74563719088469282</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.74982762029138306</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.75264305568868006</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.75575727259656844</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.75838699918527741</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.76100100043132357</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.76314743482219882</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.76570617272117314</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.76742862192082817</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.76938126018403141</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.77149908942777712</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.77340754696635661</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.77460791478960989</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.77660937649765149</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.77806599252372266</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.77955840242499752</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.7804969807342087</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.78243898567046866</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.78355129157481063</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.7849728625515191</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.78631206268570875</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.7880740498897727</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.789049470430365</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.79060822630115968</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.79192780719831302</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.79279464799194854</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.79999026526406591</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.79463481261382141</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.7957423260327805</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.7962811811080226</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.79758923008722316</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.79849800512795921</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.7992093896769864</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.80014077925812321</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.79963696923224381</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.80036902137448473</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.8009547529473785</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.80199367391929433</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.80306928735742356</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.80389000047924841</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.80477136849420083</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.80565258674398532</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.80644289753666243</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.806851307150388</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.80785293659541835</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.80906813117032483</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.80979044857663185</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.81090560001916989</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0.81163720286590602</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.8123093489408606</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0.81302196156426709</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.81371730626377836</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0.81411000551135804</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0.81457785692034879</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0.81580290604332395</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0.8158122064602702</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0.8169500023962426</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0.81716358250263577</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0.81824051387424501</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0.81828896290616293</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0.81917765443784141</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0.81957562541934248</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0.82054646314578727</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0.82080241181826874</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0.82194712690501293</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0.82197114923799475</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0.82271119884021837</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0.82237240007667967</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0.82339839631457867</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0.82356505499376964</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0.8240489312757594</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0.82431725055113581</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0.82457375335473959</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0.82492224192466201</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0.82566034457969883</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0.82569115127480108</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>0.8258651784002683</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>0.82640180197450386</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>0.82632015000479231</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>0.82672533966740136</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>0.82711751473689255</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>0.82743437290328747</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>0.82787767780120769</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>0.82759033834946805</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>0.82840949391354346</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>0.82856205969040531</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>0.82846066867152302</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>0.82913449211636148</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>0.82940186787117787</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>0.82888561235981972</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>0.82952064662609015</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>0.82993086839835128</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>0.82968112000383387</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>0.83035049542317629</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>0.83024261957251011</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>0.83063012196875297</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>0.82996077650244415</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>0.83030499676507219</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>0.83061218010160054</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>0.83052381865235292</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>0.83072899693280922</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>0.83103977463337475</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>0.83056793947090957</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>0.83110033966740138</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>0.83137581771781832</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>0.83212103421834549</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>0.83207688344675534</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>0.83207355866002097</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>0.83227527736509144</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>0.83220580130355604</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>0.83226413483657613</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>0.83246812997220354</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>0.83239979212594639</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>0.83291085078596749</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>0.83272264089907022</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>0.83311168587654549</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>0.83298354679861963</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>0.8333483447953608</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>0.83340586959647267</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>0.84077479512124975</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$181</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="180"/>
+                <c:pt idx="0">
+                  <c:v>0.40623652113486058</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.41130120553025162</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.41688042412930898</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.42470911502101738</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.43122508527514075</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.43721894957724794</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.44292022070467046</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.44850495667656831</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.45306919954515157</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.45781530760008926</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.4626097066303817</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.46783427389988547</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.47411598717604175</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.47594244873737379</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.48013932247222646</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.48475754408026445</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.48912967069230195</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.49342974321988614</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.49750862699404891</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.50110401036316077</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.50418194908258596</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.50790287474505402</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.51149578367326198</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.51518341632460274</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.5184988779614994</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.52168712100693349</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.52526279798242226</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.52785172134673342</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.53088748249114293</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.53368363980384081</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.53636486821618223</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.54505110448187943</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.54277160309704464</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.54597453713126287</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.5492081427610106</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.55183868690290117</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.55459619861519549</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.55693531781842209</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.55938262164863217</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.5617097494366009</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.56393450215519059</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.56530953557814045</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.56763029112848262</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.56924001758900722</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.57063402945098674</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.57303647460739049</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.57506165662630104</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.57704218328894308</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.579025330473949</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.58160222812262863</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.58310120319416625</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.58558040560713931</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.58764459337212349</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.58844537178527045</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.59034801567136042</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.59176557699533627</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.593149064639242</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.59408695927051125</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.59575618667462538</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.59696375477924279</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.59874200061115945</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.60127595812098789</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.60221889621901237</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.60411395859061412</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.6052914591958366</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.60672567480770123</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.60708962986241488</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.60891659976169898</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.60922579394645004</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.60957977594197943</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.61126950544264769</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.61289041200011896</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.61211984292045685</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.61406564468096803</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.61477312602909817</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.61568568837195081</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.61505695774155866</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.6169847337440223</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.6169891244030461</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.61808990626580174</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.61865757418595191</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.62055185134146729</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.62042878380623356</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.62101701267546605</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.6219489636319272</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.62192861040739844</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.6324567255889042</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.62362242278566671</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.62383702642440209</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.62394845084193773</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.6246295840020244</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.62512625859097271</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.6257224754475823</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.62665569613423622</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.62435867153817171</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.62452811787300455</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.62516882372282734</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.62506050924581269</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.62628048641372547</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.62665699339417313</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.62720002454806623</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.62727049251703615</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.62783077118300479</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.6282061322331095</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.62778402620755136</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.62918325326012359</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.62918919855250022</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.63054428697471743</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0.63087600509174935</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.63088986644941536</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0.63115170606567306</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.6322767570119403</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0.63216548886417101</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0.6315450325377262</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0.63331094951069844</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0.63248672189318333</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0.63354471453719485</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0.63344191329652255</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0.63400876988940369</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0.6328211900967472</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0.63509066174689255</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0.63416814198077687</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0.63629121152417134</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0.63579679735580685</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0.6365341711411846</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0.6360067972272696</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0.63756770058184864</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0.63600425887541145</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0.63732556777740934</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0.63719842492508771</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0.63776677529930714</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0.63836318644278167</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0.63795965329001669</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0.63764183733453583</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0.63927964821867234</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0.63817257621934065</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>0.63808446941311969</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>0.63886291168594544</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>0.63837113165238857</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>0.63825886749393268</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>0.63880232555419814</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>0.6394215656545581</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>0.63917157277582326</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>0.63923036831132729</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>0.639312703931047</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>0.63977768376089805</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>0.63926944625872417</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>0.64013824301126443</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>0.6404936440406418</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>0.63977433660965599</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>0.64081778698283798</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>0.64107163614460372</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>0.64055191183986204</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>0.64094647272204663</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>0.64065562443228463</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>0.64175176827720859</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>0.6397328876175683</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>0.64025126692972101</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>0.64087479049936036</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>0.64008996716898214</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>0.64082248522175933</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>0.64013444100553485</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>0.63894932477882893</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>0.64108488013397846</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>0.6407084883800761</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>0.64199945046514206</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>0.64210089019077754</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>0.64149598890538806</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>0.64211034717628024</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>0.64164008347153023</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>0.64131679453210622</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>0.64197879835913629</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>0.64119250099210368</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>0.64180469156634701</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>0.64175405642783667</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>0.64287049485104686</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>0.64137026471479408</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>0.64287216993599028</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>0.64207470722395177</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>0.65739417125720179</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FBA7-3943-BD76-25562F503824}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FDMA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$181</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="180"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.5588696923224389E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.3998969615642729E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.12139065944598862</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.16182575721269046</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.19635561439662605</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.22682908199942498</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.25493236605003344</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.2786487287932522</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.30179313835905303</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.32551728889101883</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.34647243122783478</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.36692945461516346</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.38093564291191406</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.3988860466788075</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.41761642744177135</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.43542170876066327</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.45013029569634805</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.46426842710629729</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.47765818197066995</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.48910188823924083</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.50155815681012172</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.5136383650436116</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.52470121848940854</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.5357038663375826</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.54602837750407351</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.5549751988881434</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.5640893079651107</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.57295750263586687</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.58096739312757584</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.58995330322055006</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.60610233154413873</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.6088656486628965</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.61735958017828041</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.62543446875299513</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.63301692945461507</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.64025328285248717</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.64650777580753371</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.65293240199367386</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.65868158727115877</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.66370096688392588</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.66821998106968272</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.67275576895427958</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.67712247196396036</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.68150160548260319</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.68677289010831011</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.69187883398830619</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.6972551039969328</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.70194155564075522</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.70731527964152197</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.71198196228313992</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.71608627671810599</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.72021320569347247</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.72322558228697398</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.72591626329914682</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.72896697977571168</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.73182360059426799</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.73468471436787108</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.73856288339883047</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.7413947929646314</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.74563719088469282</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.74982762029138306</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.75264305568868006</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.75575727259656844</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.75838699918527741</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.76100100043132357</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.76314743482219882</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.76570617272117314</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.76742862192082817</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.76938126018403141</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.77149908942777712</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.77340754696635661</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.77460791478960989</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.77660937649765149</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.77806599252372266</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.77955840242499752</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.7804969807342087</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.78243898567046866</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.78355129157481063</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.7849728625515191</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.78631206268570875</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.7880740498897727</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.789049470430365</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.79060822630115968</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.79192780719831302</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.79279464799194854</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.79999026526406591</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.79463481261382141</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.7957423260327805</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.7962811811080226</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.79758923008722316</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.79849800512795921</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.7992093896769864</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.80014077925812321</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.79963696923224381</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.80036902137448473</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.8009547529473785</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.80199367391929433</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.80306928735742356</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.80389000047924841</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.80477136849420083</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.80565258674398532</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.80644289753666243</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.806851307150388</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.80785293659541835</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.80906813117032483</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.80979044857663185</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.81090560001916989</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0.81163720286590602</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.8123093489408606</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0.81302196156426709</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.81371730626377836</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0.81411000551135804</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0.81457785692034879</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0.81580290604332395</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0.8158122064602702</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0.8169500023962426</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0.81716358250263577</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0.81824051387424501</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0.81828896290616293</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0.81917765443784141</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0.81957562541934248</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0.82054646314578727</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0.82080241181826874</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0.82194712690501293</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0.82197114923799475</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0.82271119884021837</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0.82237240007667967</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0.82339839631457867</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0.82356505499376964</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0.8240489312757594</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0.82431725055113581</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0.82457375335473959</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0.82492224192466201</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0.82566034457969883</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0.82569115127480108</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>0.8258651784002683</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>0.82640180197450386</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>0.82632015000479231</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>0.82672533966740136</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>0.82711751473689255</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>0.82743437290328747</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>0.82787767780120769</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>0.82759033834946805</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>0.82840949391354346</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>0.82856205969040531</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>0.82846066867152302</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>0.82913449211636148</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>0.82940186787117787</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>0.82888561235981972</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>0.82952064662609015</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>0.82993086839835128</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>0.82968112000383387</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>0.83035049542317629</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>0.83024261957251011</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>0.83063012196875297</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>0.82996077650244415</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>0.83030499676507219</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>0.83061218010160054</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>0.83052381865235292</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>0.83072899693280922</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>0.83103977463337475</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>0.83056793947090957</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>0.83110033966740138</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>0.83137581771781832</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>0.83212103421834549</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>0.83207688344675534</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>0.83207355866002097</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>0.83227527736509144</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>0.83220580130355604</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>0.83226413483657613</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>0.83246812997220354</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>0.83239979212594639</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>0.83291085078596749</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>0.83272264089907022</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>0.83311168587654549</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>0.83298354679861963</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>0.8333483447953608</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>0.83340586959647267</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>0.84077479512124975</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$181</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="180"/>
+                <c:pt idx="0">
+                  <c:v>0.37846257068915939</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.37606394295200402</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.37561579939899925</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3746884897163254</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.37457451769738365</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.37466805068178899</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.37410739449749203</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.37348243363794215</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.37291222408409014</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.37241868369679948</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.37193117864322828</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.37078320555897515</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.36739713012835318</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.36926460850882536</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.36822789887660046</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.36734132326298757</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.36603950864737439</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.36467744105616545</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.36363087423933732</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.36251565842512873</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.3615278272860305</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.36062311982971956</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.35912603406625726</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.3579469168872082</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.3564814859615355</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.35567162165238259</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.3535809043562072</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.35289291520592808</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.3519201350628145</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.35029169768661206</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.34953729659366867</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.34407943113993295</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.34657616963369148</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.34512332207147267</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.34352078092969301</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.3420178012479646</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.34082700268767963</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.33925586045900752</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.33837789741314878</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.33676126271596968</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.3359220559792902</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.33537049701286714</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.3342963933531925</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.33291185272731655</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.33259837528660074</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.33123208484045796</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.32995360077613956</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.32836300819604014</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.32741541937078805</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.32552368096665241</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.32488478423986716</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.32339430909319172</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.32186203611020409</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.32160118524546877</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.32039681108579354</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.31957043078487285</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.31890613778491111</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.31768820609390014</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.31682522296890492</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.31569294241512025</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.31428023016808065</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.31339636297458551</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.31218152711984265</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.31091009652706153</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.310396403845832</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.30905456425359923</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.30887142718937105</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.30768380115673155</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.30710467529607377</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.30666115104596559</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.30584678265064286</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.30426210438305723</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.30464593978617516</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.30399314564301833</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.3028902475234162</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.30224299636867619</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.30253444210342456</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.30141992632931802</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.30080733213677319</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.30029837814345273</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.29984300752722842</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.29882301394645444</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.29878626267445341</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.29880326206214858</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.29749237578302523</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.29782694330103682</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.29251382826814748</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.29565257342216722</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.29624087053370113</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.29538211585327745</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.295118610809599</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.29430310832113793</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.29415910906442366</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.29365432631638894</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.29480628591588881</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.29422113191693677</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.29373409106812465</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.29379659211927583</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.29301940027225781</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.29243651914926111</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.29226697556316711</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.29195002469790349</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.29154892742517047</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.29081157530141272</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.29087388902009292</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.29111481517795862</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.29009835817746055</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.28943074878465647</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0.28891224683375721</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.28915133897687018</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0.2888788784523324</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.28767633311221558</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0.28804799962101496</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0.28787905588780227</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0.28727477650529581</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0.28660870809631145</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0.28682505039080486</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0.28638767347244359</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0.28639208707695812</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0.28613052729302341</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0.28537920153059637</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0.28591736868597661</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0.28486534503144961</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0.284918695307189</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0.28377539069531305</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0.28463978060434758</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0.28360962092066877</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0.28379462156782465</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0.28384227445600158</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0.2834593281782104</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0.28320638340467313</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0.28257588648032467</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0.28263049710242638</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0.28297407937895069</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0.28243598329609099</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0.28233640017008604</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>0.2820079243559343</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>0.28211357424840572</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>0.28203958122283956</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>0.2823274507839707</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>0.28188071091692513</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>0.28172134762732881</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>0.28189701843256143</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>0.28103022932592076</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>0.28141873515793941</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>0.28145689434291621</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>0.2814380829844052</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>0.2809851436094381</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>0.28057134720423293</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>0.28042066907630314</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>0.28011938036974254</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>0.28033625344760177</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>0.28036132403409098</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>0.2799720790652932</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>0.28028115632915818</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>0.27941034730653297</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>0.28011516574783446</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>0.28108581443805208</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>0.28053634285710244</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>0.27992702097395855</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>0.27982660008982141</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>0.27991139969704854</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>0.28059391248191712</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>0.27926782153666463</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>0.27979954950774205</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>0.27960708257653344</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>0.27888607177678193</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>0.2796760801416257</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>0.27888200038913563</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>0.27919495314990783</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>0.27936615646979784</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>0.27915922900003437</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>0.2793090115359248</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>0.27922217084322909</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>0.2789850044452164</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>0.27858630806420304</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>0.2795391883832416</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>0.27936206153907817</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>0.27897756949357638</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>0.27243163766178335</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FBA7-3943-BD76-25562F503824}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1917302864"/>
+        <c:axId val="646329824"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1917302864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="646329824"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="646329824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1917302864"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64E70F2B-2DBE-A38F-C30D-18684DDD27D3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -422,7 +3569,7 @@
   <dimension ref="A1:D181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection sqref="A1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2963,5 +6110,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/sample_data/three_monomer_systems/DMA_MPAM_OA.xlsx
+++ b/sample_data/three_monomer_systems/DMA_MPAM_OA.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/suprajachittari/Documents/GitHub/prism/sample_data/three_monomer_systems/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13DAD45D-6853-8141-9688-0B487704C151}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C53E85B7-46D7-B34E-8E00-8C80CDECB2D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="820" yWindow="1320" windowWidth="27240" windowHeight="15280" xr2:uid="{4C116F4A-F47B-8D46-91D1-DFBF673C4444}"/>
+    <workbookView xWindow="820" yWindow="1320" windowWidth="27240" windowHeight="15280" activeTab="1" xr2:uid="{4C116F4A-F47B-8D46-91D1-DFBF673C4444}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>FMPAM</t>
   </si>
@@ -48,6 +49,9 @@
   </si>
   <si>
     <t>FTOT</t>
+  </si>
+  <si>
+    <t>Converged rates are [1.96106455 0.01073822 1.22903628 2.81849448 0.06472461 0.30639178]</t>
   </si>
 </sst>
 </file>
@@ -3568,7 +3572,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D85DC84-8D4A-5646-BDF9-E214B2D99DE3}">
   <dimension ref="A1:D181"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:C1048576"/>
     </sheetView>
   </sheetViews>
@@ -6112,4 +6116,24 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F47A195-6BD7-A747-81CF-CA0853104AAA}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>